--- a/www.eia.gov/forecasts/steo/xls/Fig8.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig8.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Annual Production (Million barrels per day)</t>
@@ -107,7 +107,7 @@
     <t>World Total</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -304,13 +304,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.92534521900000044</c:v>
+                  <c:v>0.98539854799999915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67542794399999906</c:v>
+                  <c:v>0.53233009000000209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66478727599999843</c:v>
+                  <c:v>0.66121875299999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,13 +353,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.37716185680000081</c:v>
+                  <c:v>-0.39705039709999923</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36472116160000212</c:v>
+                  <c:v>0.30057193979999752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.736219810999998</c:v>
+                  <c:v>1.1516111265000042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,13 +402,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.17513919027999947</c:v>
+                  <c:v>0.16979041434999864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18737983408000147</c:v>
+                  <c:v>0.14569446902000038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6024722619999494E-2</c:v>
+                  <c:v>7.9526560410000613E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -451,13 +451,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-8.3242246500000228E-2</c:v>
+                  <c:v>-7.4234428279999598E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0183865940000665E-2</c:v>
+                  <c:v>4.2380892330000641E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2511100040000933E-2</c:v>
+                  <c:v>6.2786620209998922E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,13 +500,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.2029568950000122E-2</c:v>
+                  <c:v>8.1326032689999828E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.13980468013000058</c:v>
+                  <c:v>-9.2926010040000229E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.15565274540999985</c:v>
+                  <c:v>-0.12896674912999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,13 +549,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.40930714593000594</c:v>
+                  <c:v>-0.37773631965999144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.4282273490006787E-2</c:v>
+                  <c:v>-0.11431560211000047</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.7097822249991168E-2</c:v>
+                  <c:v>-9.6427799989999841E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,8 +570,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="618004032"/>
-        <c:axId val="618004592"/>
+        <c:axId val="626847456"/>
+        <c:axId val="626848016"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -641,11 +641,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="618005152"/>
-        <c:axId val="618005712"/>
+        <c:axId val="626848576"/>
+        <c:axId val="626849136"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="618004032"/>
+        <c:axId val="626847456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +662,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="618004592"/>
+        <c:crossAx val="626848016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -670,7 +670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="618004592"/>
+        <c:axId val="626848016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,12 +696,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="618004032"/>
+        <c:crossAx val="626847456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="618005152"/>
+        <c:axId val="626848576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,12 +711,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="618005712"/>
+        <c:crossAx val="626849136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="618005712"/>
+        <c:axId val="626849136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -733,7 +733,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="618005152"/>
+        <c:crossAx val="626848576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -961,7 +961,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -973,7 +973,7 @@
   </cdr:absSizeAnchor>
   <cdr:absSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.75747</cdr:x>
+      <cdr:x>0.77721</cdr:x>
       <cdr:y>0.16059</cdr:y>
     </cdr:from>
     <cdr:ext cx="989095" cy="303028"/>
@@ -986,7 +986,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4141340" y="507325"/>
+          <a:off x="4249304" y="507324"/>
           <a:ext cx="989095" cy="303028"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1080,68 +1080,68 @@
         </row>
         <row r="27">
           <cell r="J27">
-            <v>0.92534521900000044</v>
+            <v>0.98539854799999915</v>
           </cell>
           <cell r="K27">
-            <v>0.67542794399999906</v>
+            <v>0.53233009000000209</v>
           </cell>
           <cell r="L27">
-            <v>0.66478727599999843</v>
+            <v>0.66121875299999999</v>
           </cell>
         </row>
         <row r="29">
           <cell r="J29">
-            <v>-0.37716185680000081</v>
+            <v>-0.39705039709999923</v>
           </cell>
           <cell r="K29">
-            <v>0.36472116160000212</v>
+            <v>0.30057193979999752</v>
           </cell>
           <cell r="L29">
-            <v>0.736219810999998</v>
+            <v>1.1516111265000042</v>
           </cell>
         </row>
         <row r="34">
           <cell r="J34">
-            <v>0.17513919027999947</v>
+            <v>0.16979041434999864</v>
           </cell>
           <cell r="K34">
-            <v>0.18737983408000147</v>
+            <v>0.14569446902000038</v>
           </cell>
           <cell r="L34">
-            <v>8.6024722619999494E-2</v>
+            <v>7.9526560410000613E-2</v>
           </cell>
         </row>
         <row r="40">
           <cell r="J40">
-            <v>-8.3242246500000228E-2</v>
+            <v>-7.4234428279999598E-2</v>
           </cell>
           <cell r="K40">
-            <v>3.0183865940000665E-2</v>
+            <v>4.2380892330000641E-2</v>
           </cell>
           <cell r="L40">
-            <v>6.2511100040000933E-2</v>
+            <v>6.2786620209998922E-2</v>
           </cell>
         </row>
         <row r="46">
           <cell r="J46">
-            <v>7.2029568950000122E-2</v>
+            <v>8.1326032689999828E-2</v>
           </cell>
           <cell r="K46">
-            <v>-0.13980468013000058</v>
+            <v>-9.2926010040000229E-2</v>
           </cell>
           <cell r="L46">
-            <v>-0.15565274540999985</v>
+            <v>-0.12896674912999995</v>
           </cell>
         </row>
         <row r="51">
           <cell r="J51">
-            <v>-0.40930714593000594</v>
+            <v>-0.37773631965999144</v>
           </cell>
           <cell r="K51">
-            <v>-3.4282273490006787E-2</v>
+            <v>-0.11431560211000047</v>
           </cell>
           <cell r="L51">
-            <v>-6.7097822249991168E-2</v>
+            <v>-9.6427799989999841E-2</v>
           </cell>
         </row>
         <row r="57">
@@ -1530,28 +1530,28 @@
         <v>4</v>
       </c>
       <c r="E27" s="11">
-        <v>38.671132036000003</v>
+        <v>38.033975433000002</v>
       </c>
       <c r="F27" s="11">
-        <v>39.596477255000003</v>
+        <v>39.019373981000001</v>
       </c>
       <c r="G27" s="11">
-        <v>40.271905199000003</v>
+        <v>39.551704071000003</v>
       </c>
       <c r="H27" s="11">
-        <v>40.936692475000001</v>
+        <v>40.212922824000003</v>
       </c>
       <c r="J27" s="12">
         <f>F27-E27</f>
-        <v>0.92534521900000044</v>
+        <v>0.98539854799999915</v>
       </c>
       <c r="K27" s="12">
         <f>G27-F27</f>
-        <v>0.67542794399999906</v>
+        <v>0.53233009000000209</v>
       </c>
       <c r="L27" s="12">
         <f>H27-G27</f>
-        <v>0.66478727599999843</v>
+        <v>0.66121875299999999</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -1574,28 +1574,28 @@
       </c>
       <c r="F29" s="12">
         <f>SUM(F30:F32)</f>
-        <v>21.877020690599998</v>
+        <v>21.8571321503</v>
       </c>
       <c r="G29" s="12">
         <f>SUM(G30:G32)</f>
-        <v>22.241741852200001</v>
+        <v>22.157704090099998</v>
       </c>
       <c r="H29" s="12">
         <f>SUM(H30:H32)</f>
-        <v>22.977961663199999</v>
+        <v>23.309315216600002</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="12">
         <f t="shared" ref="J29:L32" si="0">F29-E29</f>
-        <v>-0.37716185680000081</v>
+        <v>-0.39705039709999923</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="0"/>
-        <v>0.36472116160000212</v>
+        <v>0.30057193979999752</v>
       </c>
       <c r="L29" s="12">
         <f t="shared" si="0"/>
-        <v>0.736219810999998</v>
+        <v>1.1516111265000042</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -1606,26 +1606,26 @@
         <v>4.5059315615999997</v>
       </c>
       <c r="F30" s="12">
-        <v>4.5296233872</v>
+        <v>4.5256855260000002</v>
       </c>
       <c r="G30" s="12">
-        <v>4.7258493178999998</v>
+        <v>4.7106092711000001</v>
       </c>
       <c r="H30" s="12">
-        <v>4.8842758551000003</v>
+        <v>4.8683554024999998</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>2.3691825600000271E-2</v>
+        <v>1.9753964400000434E-2</v>
       </c>
       <c r="K30" s="12">
         <f t="shared" si="0"/>
-        <v>0.19622593069999983</v>
+        <v>0.18492374509999987</v>
       </c>
       <c r="L30" s="12">
         <f t="shared" si="0"/>
-        <v>0.15842653720000044</v>
+        <v>0.15774613139999971</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -1636,26 +1636,26 @@
         <v>2.6246649178000001</v>
       </c>
       <c r="F31" s="12">
-        <v>2.5161811614</v>
+        <v>2.4940562623</v>
       </c>
       <c r="G31" s="12">
-        <v>2.3744327723</v>
+        <v>2.2793745109999999</v>
       </c>
       <c r="H31" s="12">
-        <v>2.2594602370999999</v>
+        <v>2.2761747310999998</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>-0.10848375640000008</v>
+        <v>-0.13060865550000011</v>
       </c>
       <c r="K31" s="12">
         <f t="shared" si="0"/>
-        <v>-0.14174838909999998</v>
+        <v>-0.21468175130000011</v>
       </c>
       <c r="L31" s="12">
         <f t="shared" si="0"/>
-        <v>-0.11497253520000017</v>
+        <v>-3.1997799000000882E-3</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -1666,26 +1666,26 @@
         <v>15.123586068</v>
       </c>
       <c r="F32" s="12">
-        <v>14.831216142000001</v>
+        <v>14.837390362000001</v>
       </c>
       <c r="G32" s="12">
-        <v>15.141459762</v>
+        <v>15.167720308</v>
       </c>
       <c r="H32" s="12">
-        <v>15.834225570999999</v>
+        <v>16.164785083000002</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="12">
         <f t="shared" si="0"/>
-        <v>-0.29236992599999923</v>
+        <v>-0.28619570599999911</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" si="0"/>
-        <v>0.31024361999999961</v>
+        <v>0.3303299459999991</v>
       </c>
       <c r="L32" s="12">
         <f t="shared" si="0"/>
-        <v>0.69276580899999907</v>
+        <v>0.9970647750000019</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -1711,27 +1711,27 @@
       </c>
       <c r="F34" s="11">
         <f>SUM(F35:F38)</f>
-        <v>14.09409063659</v>
+        <v>14.088741860659999</v>
       </c>
       <c r="G34" s="11">
         <f>SUM(G35:G38)</f>
-        <v>14.281470470670001</v>
+        <v>14.234436329679999</v>
       </c>
       <c r="H34" s="11">
         <f>SUM(H35:H38)</f>
-        <v>14.367495193290001</v>
+        <v>14.31396289009</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" ref="J34:L38" si="1">F34-E34</f>
-        <v>0.17513919027999947</v>
+        <v>0.16979041434999864</v>
       </c>
       <c r="K34" s="12">
         <f t="shared" si="1"/>
-        <v>0.18737983408000147</v>
+        <v>0.14569446902000038</v>
       </c>
       <c r="L34" s="12">
         <f t="shared" si="1"/>
-        <v>8.6024722619999494E-2</v>
+        <v>7.9526560410000613E-2</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -1742,25 +1742,25 @@
         <v>11.029721986</v>
       </c>
       <c r="F35" s="11">
-        <v>11.240564341000001</v>
+        <v>11.240399442999999</v>
       </c>
       <c r="G35" s="11">
-        <v>11.362375068</v>
+        <v>11.296731380000001</v>
       </c>
       <c r="H35" s="11">
-        <v>11.414495989000001</v>
+        <v>11.381449769</v>
       </c>
       <c r="J35" s="12">
         <f>F35-E35</f>
-        <v>0.21084235500000048</v>
+        <v>0.21067745699999918</v>
       </c>
       <c r="K35" s="12">
         <f>G35-F35</f>
-        <v>0.12181072699999973</v>
+        <v>5.6331937000001275E-2</v>
       </c>
       <c r="L35" s="12">
         <f>H35-G35</f>
-        <v>5.2120921000000209E-2</v>
+        <v>8.471838899999895E-2</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -1771,25 +1771,25 @@
         <v>0.85822120000000002</v>
       </c>
       <c r="F36" s="12">
-        <v>0.86598809110999997</v>
+        <v>0.84808225473999999</v>
       </c>
       <c r="G36" s="12">
-        <v>0.82651221857000001</v>
+        <v>0.78740074248000003</v>
       </c>
       <c r="H36" s="12">
-        <v>0.82184905006999998</v>
+        <v>0.76913306114000002</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="1"/>
-        <v>7.7668911099999516E-3</v>
+        <v>-1.0138945260000032E-2</v>
       </c>
       <c r="K36" s="12">
         <f t="shared" si="1"/>
-        <v>-3.9475872539999957E-2</v>
+        <v>-6.0681512259999959E-2</v>
       </c>
       <c r="L36" s="12">
         <f t="shared" si="1"/>
-        <v>-4.6631685000000367E-3</v>
+        <v>-1.8267681340000008E-2</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -1800,25 +1800,25 @@
         <v>1.7515083425</v>
       </c>
       <c r="F37" s="12">
-        <v>1.7189695355000001</v>
+        <v>1.731690647</v>
       </c>
       <c r="G37" s="12">
-        <v>1.8069976943999999</v>
+        <v>1.8647197606000001</v>
       </c>
       <c r="H37" s="12">
-        <v>1.8453248119000001</v>
+        <v>1.8775569644000001</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="1"/>
-        <v>-3.2538806999999892E-2</v>
+        <v>-1.981769550000001E-2</v>
       </c>
       <c r="K37" s="12">
         <f t="shared" si="1"/>
-        <v>8.802815889999982E-2</v>
+        <v>0.13302911360000014</v>
       </c>
       <c r="L37" s="12">
         <f t="shared" si="1"/>
-        <v>3.8327117500000174E-2</v>
+        <v>1.2837203799999974E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -1829,25 +1829,25 @@
         <v>0.27949991781</v>
       </c>
       <c r="F38" s="12">
-        <v>0.26856866897999998</v>
+        <v>0.26856951592</v>
       </c>
       <c r="G38" s="12">
-        <v>0.28558548969999997</v>
+        <v>0.28558444659999999</v>
       </c>
       <c r="H38" s="12">
-        <v>0.28582534232000001</v>
+        <v>0.28582309555000002</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="1"/>
-        <v>-1.0931248830000018E-2</v>
+        <v>-1.0930401889999997E-2</v>
       </c>
       <c r="K38" s="12">
         <f t="shared" si="1"/>
-        <v>1.7016820719999992E-2</v>
+        <v>1.7014930679999984E-2</v>
       </c>
       <c r="L38" s="12">
         <f t="shared" si="1"/>
-        <v>2.3985262000003615E-4</v>
+        <v>2.3864895000003106E-4</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -1870,28 +1870,28 @@
       </c>
       <c r="F40" s="12">
         <f>SUM(F41:F44)</f>
-        <v>5.2676198019499996</v>
+        <v>5.2766276201700002</v>
       </c>
       <c r="G40" s="12">
         <f>SUM(G41:G44)</f>
-        <v>5.2978036678900002</v>
+        <v>5.3190085125000008</v>
       </c>
       <c r="H40" s="12">
         <f>SUM(H41:H44)</f>
-        <v>5.3603147679300012</v>
+        <v>5.3817951327099998</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="12">
         <f t="shared" ref="J40:L44" si="2">F40-E40</f>
-        <v>-8.3242246500000228E-2</v>
+        <v>-7.4234428279999598E-2</v>
       </c>
       <c r="K40" s="12">
         <f t="shared" si="2"/>
-        <v>3.0183865940000665E-2</v>
+        <v>4.2380892330000641E-2</v>
       </c>
       <c r="L40" s="12">
         <f t="shared" si="2"/>
-        <v>6.2511100040000933E-2</v>
+        <v>6.2786620209998922E-2</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -1902,26 +1902,26 @@
         <v>0.71029187881</v>
       </c>
       <c r="F41" s="12">
-        <v>0.69651773860999999</v>
+        <v>0.69652600611000004</v>
       </c>
       <c r="G41" s="12">
-        <v>0.70156346753999999</v>
+        <v>0.70155328515000004</v>
       </c>
       <c r="H41" s="12">
-        <v>0.70148614064000003</v>
+        <v>0.70146420851000002</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="12">
         <f t="shared" si="2"/>
-        <v>-1.3774140200000007E-2</v>
+        <v>-1.3765872699999959E-2</v>
       </c>
       <c r="K41" s="12">
         <f t="shared" si="2"/>
-        <v>5.045728929999993E-3</v>
+        <v>5.0272790399999989E-3</v>
       </c>
       <c r="L41" s="12">
         <f t="shared" si="2"/>
-        <v>-7.7326899999952126E-5</v>
+        <v>-8.9076640000018692E-5</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -1932,26 +1932,26 @@
         <v>3.1831543781999998</v>
       </c>
       <c r="F42" s="12">
-        <v>3.2330866121000001</v>
+        <v>3.2348831847000001</v>
       </c>
       <c r="G42" s="12">
-        <v>3.2811534161</v>
+        <v>3.2955568134000002</v>
       </c>
       <c r="H42" s="12">
-        <v>3.3403452682000001</v>
+        <v>3.3553912459999999</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="12">
         <f t="shared" si="2"/>
-        <v>4.9932233900000345E-2</v>
+        <v>5.1728806500000335E-2</v>
       </c>
       <c r="K42" s="12">
         <f t="shared" si="2"/>
-        <v>4.8066803999999852E-2</v>
+        <v>6.0673628700000037E-2</v>
       </c>
       <c r="L42" s="12">
         <f t="shared" si="2"/>
-        <v>5.9191852100000109E-2</v>
+        <v>5.9834432599999765E-2</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -1962,26 +1962,26 @@
         <v>1.0292200718</v>
       </c>
       <c r="F43" s="12">
-        <v>0.92419920077999995</v>
+        <v>0.92420220444000001</v>
       </c>
       <c r="G43" s="12">
-        <v>0.90841897518000003</v>
+        <v>0.90841527583000004</v>
       </c>
       <c r="H43" s="12">
-        <v>0.90233855988</v>
+        <v>0.90233059174999997</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="12">
         <f t="shared" si="2"/>
-        <v>-0.10502087102000002</v>
+        <v>-0.10501786735999996</v>
       </c>
       <c r="K43" s="12">
         <f t="shared" si="2"/>
-        <v>-1.578022559999992E-2</v>
+        <v>-1.5786928609999973E-2</v>
       </c>
       <c r="L43" s="12">
         <f t="shared" si="2"/>
-        <v>-6.0804153000000305E-3</v>
+        <v>-6.084684080000069E-3</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -1992,26 +1992,26 @@
         <v>0.42819571964000003</v>
       </c>
       <c r="F44" s="12">
-        <v>0.41381625045999998</v>
+        <v>0.42101622492000002</v>
       </c>
       <c r="G44" s="12">
-        <v>0.40666780907</v>
+        <v>0.41348313811999998</v>
       </c>
       <c r="H44" s="12">
-        <v>0.41614479921000003</v>
+        <v>0.42260908645</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="12">
         <f t="shared" si="2"/>
-        <v>-1.4379469180000048E-2</v>
+        <v>-7.1794947200000125E-3</v>
       </c>
       <c r="K44" s="12">
         <f t="shared" si="2"/>
-        <v>-7.1484413899999821E-3</v>
+        <v>-7.5330868000000328E-3</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="2"/>
-        <v>9.47699014000003E-3</v>
+        <v>9.1259483300000221E-3</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -2035,27 +2035,27 @@
       </c>
       <c r="F46" s="11">
         <f>SUM(F47:F49)</f>
-        <v>3.1339357278700004</v>
+        <v>3.1432321916100001</v>
       </c>
       <c r="G46" s="11">
         <f>SUM(G47:G49)</f>
-        <v>2.9941310477399998</v>
+        <v>3.0503061815699999</v>
       </c>
       <c r="H46" s="11">
         <f>SUM(H47:H49)</f>
-        <v>2.83847830233</v>
+        <v>2.9213394324399999</v>
       </c>
       <c r="J46" s="12">
         <f t="shared" ref="J46:L49" si="3">F46-E46</f>
-        <v>7.2029568950000122E-2</v>
+        <v>8.1326032689999828E-2</v>
       </c>
       <c r="K46" s="12">
         <f t="shared" si="3"/>
-        <v>-0.13980468013000058</v>
+        <v>-9.2926010040000229E-2</v>
       </c>
       <c r="L46" s="12">
         <f t="shared" si="3"/>
-        <v>-0.15565274540999985</v>
+        <v>-0.12896674912999995</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -2066,25 +2066,25 @@
         <v>1.9577091781</v>
       </c>
       <c r="F47" s="12">
-        <v>2.0113493483</v>
+        <v>2.0064891313</v>
       </c>
       <c r="G47" s="12">
-        <v>2.000837132</v>
+        <v>1.9923885728999999</v>
       </c>
       <c r="H47" s="12">
-        <v>1.8986701107999999</v>
+        <v>1.9211752388000001</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="3"/>
-        <v>5.3640170200000004E-2</v>
+        <v>4.8779953199999948E-2</v>
       </c>
       <c r="K47" s="12">
         <f t="shared" si="3"/>
-        <v>-1.0512216299999988E-2</v>
+        <v>-1.4100558400000018E-2</v>
       </c>
       <c r="L47" s="12">
         <f t="shared" si="3"/>
-        <v>-0.1021670212000001</v>
+        <v>-7.1213334099999859E-2</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -2095,25 +2095,25 @@
         <v>0.92537488492999997</v>
       </c>
       <c r="F48" s="12">
-        <v>0.96718554769999998</v>
+        <v>0.98198033359000003</v>
       </c>
       <c r="G48" s="12">
-        <v>0.84449537133999997</v>
+        <v>0.91216140754999997</v>
       </c>
       <c r="H48" s="12">
-        <v>0.80291790964999998</v>
+        <v>0.86584426287000005</v>
       </c>
       <c r="J48" s="12">
         <f t="shared" si="3"/>
-        <v>4.1810662770000007E-2</v>
+        <v>5.6605448660000057E-2</v>
       </c>
       <c r="K48" s="12">
         <f t="shared" si="3"/>
-        <v>-0.12269017636000001</v>
+        <v>-6.9818926040000062E-2</v>
       </c>
       <c r="L48" s="12">
         <f t="shared" si="3"/>
-        <v>-4.1577461689999984E-2</v>
+        <v>-4.6317144679999922E-2</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -2124,25 +2124,25 @@
         <v>0.17882209589</v>
       </c>
       <c r="F49" s="12">
-        <v>0.15540083187000001</v>
+        <v>0.15476272671999999</v>
       </c>
       <c r="G49" s="12">
-        <v>0.14879854440000001</v>
+        <v>0.14575620112000001</v>
       </c>
       <c r="H49" s="12">
-        <v>0.13689028187999999</v>
+        <v>0.13431993077000001</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="3"/>
-        <v>-2.3421264019999999E-2</v>
+        <v>-2.4059369170000011E-2</v>
       </c>
       <c r="K49" s="12">
         <f t="shared" si="3"/>
-        <v>-6.6022874699999956E-3</v>
+        <v>-9.0065255999999816E-3</v>
       </c>
       <c r="L49" s="12">
         <f t="shared" si="3"/>
-        <v>-1.1908262520000018E-2</v>
+        <v>-1.143627035E-2</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -2161,31 +2161,31 @@
       </c>
       <c r="E51" s="11">
         <f>E53-E27-E29-E34-E40-E46</f>
-        <v>12.884850176920001</v>
+        <v>14.209845957919992</v>
       </c>
       <c r="F51" s="11">
         <f>F53-F27-F29-F34-F40-F46</f>
-        <v>12.475543030989995</v>
+        <v>13.83210963826</v>
       </c>
       <c r="G51" s="11">
         <f>G53-G27-G29-G34-G40-G46</f>
-        <v>12.441260757499988</v>
+        <v>13.71779403615</v>
       </c>
       <c r="H51" s="11">
         <f>H53-H27-H29-H34-H40-H46</f>
-        <v>12.374162935249997</v>
+        <v>13.62136623616</v>
       </c>
       <c r="J51" s="12">
         <f>F51-E51</f>
-        <v>-0.40930714593000594</v>
+        <v>-0.37773631965999144</v>
       </c>
       <c r="K51" s="12">
         <f>G51-F51</f>
-        <v>-3.4282273490006787E-2</v>
+        <v>-0.11431560211000047</v>
       </c>
       <c r="L51" s="12">
         <f>H51-G51</f>
-        <v>-6.7097822249991168E-2</v>
+        <v>-9.6427799989999841E-2</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -2201,29 +2201,29 @@
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="17">
-        <v>96.141884414000003</v>
+        <v>96.829723591999993</v>
       </c>
       <c r="F53" s="17">
-        <v>96.444687142999996</v>
+        <v>97.217217442000006</v>
       </c>
       <c r="G53" s="17">
-        <v>97.528312994999993</v>
+        <v>98.030953221000004</v>
       </c>
       <c r="H53" s="17">
-        <v>98.855105336999998</v>
+        <v>99.760701732000001</v>
       </c>
       <c r="I53" s="16"/>
       <c r="J53" s="17">
         <f>F53-E53</f>
-        <v>0.30280272899999261</v>
+        <v>0.38749385000001269</v>
       </c>
       <c r="K53" s="17">
         <f>G53-F53</f>
-        <v>1.0836258519999973</v>
+        <v>0.81373577899999816</v>
       </c>
       <c r="L53" s="17">
         <f>H53-G53</f>
-        <v>1.3267923420000045</v>
+        <v>1.7297485109999968</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
